--- a/Stocks/MRF.xlsx
+++ b/Stocks/MRF.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>68427.616666666669</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>69793.215909073508</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>69034.707670332893</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>69.583858951046807</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>1235</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>1723.6999999999971</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.71648198642455307</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>69536.568732161613</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>4.1022620552248554</v>
       </c>
       <c r="Y67">
         <v>-4.0473121349697632</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>63350</v>
+      </c>
+      <c r="D83">
+        <v>63400</v>
+      </c>
+      <c r="E83">
+        <v>62657.15</v>
+      </c>
+      <c r="F83">
+        <v>62895</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>62984.049999999996</v>
+      </c>
+      <c r="H83">
+        <v>63050.531926715732</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>64370.788943489555</v>
+      </c>
+      <c r="K83">
+        <v>63113.988718695968</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>33.544363439612837</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>237.84999999999854</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>742.84999999999854</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.32018577101702766</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>64118.245136660807</v>
+      </c>
+      <c r="W83">
+        <v>65781.58865201092</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-1663.3435153501123</v>
+      </c>
+      <c r="Y83">
+        <v>-1436.3323617608078</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>62949.9</v>
+      </c>
+      <c r="D84">
+        <v>63200</v>
+      </c>
+      <c r="E84">
+        <v>62400</v>
+      </c>
+      <c r="F84">
+        <v>62800</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>62800</v>
+      </c>
+      <c r="H84">
+        <v>62925.265963357866</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>64110.613622714096</v>
+      </c>
+      <c r="K84">
+        <v>62955.324558985754</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>32.224649367133885</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>400</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>800</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>63915.438192559144</v>
+      </c>
+      <c r="W84">
+        <v>65560.730233343449</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-1645.2920407843048</v>
+      </c>
+      <c r="Y84">
+        <v>-1478.1242975655073</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>63200</v>
+      </c>
+      <c r="D85">
+        <v>63299.95</v>
+      </c>
+      <c r="E85">
+        <v>62655.6</v>
+      </c>
+      <c r="F85">
+        <v>62800</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>62918.516666666663</v>
+      </c>
+      <c r="H85">
+        <v>62921.891315012268</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>63930.466150999855</v>
+      </c>
+      <c r="K85">
+        <v>62888.719101433366</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N85">
+        <v>32.224649367133885</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>144.40000000000146</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>644.34999999999854</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.22410180802359242</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>63743.832316780812</v>
+      </c>
+      <c r="W85">
+        <v>65356.231697540228</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-1612.3993807594161</v>
+      </c>
+      <c r="Y85">
+        <v>-1504.979314204289</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>63179.9</v>
+      </c>
+      <c r="D86">
+        <v>64235.199999999997</v>
+      </c>
+      <c r="E86">
+        <v>62850</v>
+      </c>
+      <c r="F86">
+        <v>64200</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>63761.733333333337</v>
+      </c>
+      <c r="H86">
+        <v>63341.812324172803</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>63998.184784110999</v>
+      </c>
+      <c r="K86">
+        <v>62880.114856670392</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>64.439363237530443</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1350</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>1385.1999999999971</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.97458850707479272</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>63814.011960352997</v>
+      </c>
+      <c r="W86">
+        <v>65270.584905129843</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-1456.5729447768463</v>
+      </c>
+      <c r="Y86">
+        <v>-1495.2980403188005</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>64090</v>
+      </c>
+      <c r="D87">
+        <v>65499</v>
+      </c>
+      <c r="E87">
+        <v>64090</v>
+      </c>
+      <c r="F87">
+        <v>65199</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>64929.333333333336</v>
+      </c>
+      <c r="H87">
+        <v>64135.572828753066</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>64331.69927653078</v>
+      </c>
+      <c r="K87">
+        <v>63148.978221854748</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>75.027028329974002</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1109</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>1409</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.78708303761533005</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>64027.087043375614</v>
+      </c>
+      <c r="W87">
+        <v>65265.282319564671</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-1238.195276189057</v>
+      </c>
+      <c r="Y87">
+        <v>-1443.8774874928517</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>65290</v>
+      </c>
+      <c r="D88">
+        <v>65368.45</v>
+      </c>
+      <c r="E88">
+        <v>63950</v>
+      </c>
+      <c r="F88">
+        <v>64150</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>64489.483333333337</v>
+      </c>
+      <c r="H88">
+        <v>64312.528081043201</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>64562.088326190606</v>
+      </c>
+      <c r="K88">
+        <v>63326.983061442581</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>53.945367033467207</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>200</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>1418.4499999999971</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.14099897775741155</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>64045.996729010134</v>
+      </c>
+      <c r="W88">
+        <v>65182.668814411729</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-1136.6720854015948</v>
+      </c>
+      <c r="Y88">
+        <v>-1382.4364070746003</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>64474.3</v>
+      </c>
+      <c r="D89">
+        <v>64999</v>
+      </c>
+      <c r="E89">
+        <v>64200</v>
+      </c>
+      <c r="F89">
+        <v>64630</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>64609.666666666664</v>
+      </c>
+      <c r="H89">
+        <v>64461.097373854936</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>64659.17980925936</v>
+      </c>
+      <c r="K89">
+        <v>63520.986825566455</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>60.322268199281645</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>430</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>799</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.53817271589486859</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>64135.8433860855</v>
+      </c>
+      <c r="W89">
+        <v>65141.730383714566</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-1005.8869976290662</v>
+      </c>
+      <c r="Y89">
+        <v>-1307.1265251854934</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>64260</v>
+      </c>
+      <c r="D90">
+        <v>65330</v>
+      </c>
+      <c r="E90">
+        <v>63709.2</v>
+      </c>
+      <c r="F90">
+        <v>64830</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>64623.066666666673</v>
+      </c>
+      <c r="H90">
+        <v>64542.082020260801</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>64808.25096275728</v>
+      </c>
+      <c r="K90">
+        <v>63562.811975440578</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>62.991215240590861</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>1120.8000000000029</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>1620.8000000000029</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.69151036525172804</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>64242.636711303116</v>
+      </c>
+      <c r="W90">
+        <v>65118.639244180151</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-876.00253287703526</v>
+      </c>
+      <c r="Y90">
+        <v>-1220.9017267238019</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>65269.9</v>
+      </c>
+      <c r="D91">
+        <v>65350</v>
+      </c>
+      <c r="E91">
+        <v>64102</v>
+      </c>
+      <c r="F91">
+        <v>64370</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>64607.333333333336</v>
+      </c>
+      <c r="H91">
+        <v>64574.707676797072</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>64928.639637700107</v>
+      </c>
+      <c r="K91">
+        <v>63682.63153645378</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>52.783488066107552</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>268</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>1248</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.21474358974358973</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>64262.231063410327</v>
+      </c>
+      <c r="W91">
+        <v>65063.184485351994</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-800.95342194166733</v>
+      </c>
+      <c r="Y91">
+        <v>-1136.912065767375</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>64505</v>
+      </c>
+      <c r="D92">
+        <v>64799.9</v>
+      </c>
+      <c r="E92">
+        <v>63671</v>
+      </c>
+      <c r="F92">
+        <v>63723</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>64064.633333333331</v>
+      </c>
+      <c r="H92">
+        <v>64319.670505065202</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>64900.030829322306</v>
+      </c>
+      <c r="K92">
+        <v>63680.046750575166</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>41.079566954656684</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>52</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>1128.9000000000015</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>4.6062538754539757E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>64179.27243827028</v>
+      </c>
+      <c r="W92">
+        <v>64963.911560511107</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-784.63912224082742</v>
+      </c>
+      <c r="Y92">
+        <v>-1066.4574770620654</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>64010</v>
+      </c>
+      <c r="D93">
+        <v>64799</v>
+      </c>
+      <c r="E93">
+        <v>64010</v>
+      </c>
+      <c r="F93">
+        <v>64655</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>64488</v>
+      </c>
+      <c r="H93">
+        <v>64403.835252532604</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>64877.579533917349</v>
+      </c>
+      <c r="K93">
+        <v>63753.369694891793</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>57.891695424449374</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>645</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>789</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.81749049429657794</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>64252.461293921006</v>
+      </c>
+      <c r="W93">
+        <v>64941.02922269547</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-688.56792877446424</v>
+      </c>
+      <c r="Y93">
+        <v>-990.87956740454524</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>64899.9</v>
+      </c>
+      <c r="D94">
+        <v>65545.600000000006</v>
+      </c>
+      <c r="E94">
+        <v>64650.1</v>
+      </c>
+      <c r="F94">
+        <v>65300</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>65165.233333333337</v>
+      </c>
+      <c r="H94">
+        <v>64784.534292932971</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>65026.028526380163</v>
+      </c>
+      <c r="K94">
+        <v>63952.64309602695</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>66.22790443086474</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>649.90000000000146</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>895.50000000000728</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.72573981016191647</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>64413.621094856237</v>
+      </c>
+      <c r="W94">
+        <v>64967.619650643952</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-553.9985557877153</v>
+      </c>
+      <c r="Y94">
+        <v>-903.50336508117925</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>65500</v>
+      </c>
+      <c r="D95">
+        <v>65650</v>
+      </c>
+      <c r="E95">
+        <v>64100</v>
+      </c>
+      <c r="F95">
+        <v>64425.2</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>64725.066666666673</v>
+      </c>
+      <c r="H95">
+        <v>64754.800479799822</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>65164.688853851236</v>
+      </c>
+      <c r="K95">
+        <v>63985.389074687628</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>49.585541972823499</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>325.19999999999709</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>1550</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.20980645161290135</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>64415.402464878352</v>
+      </c>
+      <c r="W95">
+        <v>64927.440417262915</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-512.03795238456223</v>
+      </c>
+      <c r="Y95">
+        <v>-825.2102825418558</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>64430</v>
+      </c>
+      <c r="D96">
+        <v>64599.8</v>
+      </c>
+      <c r="E96">
+        <v>63690</v>
+      </c>
+      <c r="F96">
+        <v>63800</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>64029.933333333327</v>
+      </c>
+      <c r="H96">
+        <v>64392.366906566574</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>65039.157997439848</v>
+      </c>
+      <c r="K96">
+        <v>63919.747058090376</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>40.494900888709275</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>110</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>909.80000000000291</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.12090569355902357</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>64320.725162589377</v>
+      </c>
+      <c r="W96">
+        <v>64843.926312280477</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-523.2011496911</v>
+      </c>
+      <c r="Y96">
+        <v>-764.80845597170469</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>63999.95</v>
+      </c>
+      <c r="D97">
+        <v>64750</v>
+      </c>
+      <c r="E97">
+        <v>63535.75</v>
+      </c>
+      <c r="F97">
+        <v>64600</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>64295.25</v>
+      </c>
+      <c r="H97">
+        <v>64343.808453283287</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>64974.900664675435</v>
+      </c>
+      <c r="K97">
+        <v>63834.414378514739</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>53.987516601833697</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1064.25</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>1214.25</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.87646695491043858</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>64363.690522191013</v>
+      </c>
+      <c r="W97">
+        <v>64825.857696555999</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-462.16717436498584</v>
+      </c>
+      <c r="Y97">
+        <v>-704.28019965036094</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>64698</v>
+      </c>
+      <c r="D98">
+        <v>65300</v>
+      </c>
+      <c r="E98">
+        <v>64648.15</v>
+      </c>
+      <c r="F98">
+        <v>64980</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>64976.049999999996</v>
+      </c>
+      <c r="H98">
+        <v>64659.929226641645</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>65047.144961414226</v>
+      </c>
+      <c r="K98">
+        <v>64015.244516622573</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>59.447188673186204</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>331.84999999999854</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>651.84999999999854</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.50908951445884676</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>64458.507364930854</v>
+      </c>
+      <c r="W98">
+        <v>64837.275644959256</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-378.76828002840193</v>
+      </c>
+      <c r="Y98">
+        <v>-639.17781572596914</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>64648</v>
+      </c>
+      <c r="D99">
+        <v>65248</v>
+      </c>
+      <c r="E99">
+        <v>64003.05</v>
+      </c>
+      <c r="F99">
+        <v>64060</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>64437.016666666663</v>
+      </c>
+      <c r="H99">
+        <v>64548.472946654154</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>65091.779414433287</v>
+      </c>
+      <c r="K99">
+        <v>64012.534624039778</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>43.740387285213615</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>56.94999999999709</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>1244.9499999999971</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>4.5744809028472812E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>64397.198539556877</v>
+      </c>
+      <c r="W99">
+        <v>64779.699671258568</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-382.50113170169061</v>
+      </c>
+      <c r="Y99">
+        <v>-587.84247892111341</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>65101</v>
+      </c>
+      <c r="D100">
+        <v>65650</v>
+      </c>
+      <c r="E100">
+        <v>63933.15</v>
+      </c>
+      <c r="F100">
+        <v>64000.5</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>64527.883333333331</v>
+      </c>
+      <c r="H100">
+        <v>64538.178139993746</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>65215.828433448114</v>
+      </c>
+      <c r="K100">
+        <v>63994.893596475384</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>42.825643474789004</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>67.349999999998545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>1716.8499999999985</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>3.9228820223082154E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>64336.167995009666</v>
+      </c>
+      <c r="W100">
+        <v>64721.981177091264</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-385.81318208159792</v>
+      </c>
+      <c r="Y100">
+        <v>-547.43661955321033</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>64438</v>
+      </c>
+      <c r="D101">
+        <v>64447.8</v>
+      </c>
+      <c r="E101">
+        <v>63152.55</v>
+      </c>
+      <c r="F101">
+        <v>63311</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>63637.116666666669</v>
+      </c>
+      <c r="H101">
+        <v>64087.647403330207</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>65045.155448237419</v>
+      </c>
+      <c r="K101">
+        <v>63807.706130591963</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>32.868688401747306</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>158.44999999999709</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>1295.25</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.12233159621694428</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>64178.449841931259</v>
+      </c>
+      <c r="W101">
+        <v>64617.464052862284</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-439.01421093102545</v>
+      </c>
+      <c r="Y101">
+        <v>-525.75213782877336</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>64000</v>
+      </c>
+      <c r="D102">
+        <v>64000</v>
+      </c>
+      <c r="E102">
+        <v>62650</v>
+      </c>
+      <c r="F102">
+        <v>62700</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>63116.666666666664</v>
+      </c>
+      <c r="H102">
+        <v>63602.157034998439</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>64812.898681962441</v>
+      </c>
+      <c r="K102">
+        <v>63550.438101571526</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>26.137353298620226</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>1350</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>63950.996020095678</v>
+      </c>
+      <c r="W102">
+        <v>64475.429678576191</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-524.43365848051326</v>
+      </c>
+      <c r="Y102">
+        <v>-525.48844195912136</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>63100</v>
+      </c>
+      <c r="D103">
+        <v>63376.6</v>
+      </c>
+      <c r="E103">
+        <v>61251</v>
+      </c>
+      <c r="F103">
+        <v>63200</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>62609.200000000004</v>
+      </c>
+      <c r="H103">
+        <v>63105.678517499226</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J103">
+        <v>64493.721197081897</v>
+      </c>
+      <c r="K103">
+        <v>63039.45185677785</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>38.930612727454537</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>1949</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>2125.5999999999985</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.91691757621377556</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>63835.458170850186</v>
+      </c>
+      <c r="W103">
+        <v>64380.953406089066</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-545.4952352388791</v>
+      </c>
+      <c r="Y103">
+        <v>-529.48980061507291</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>62800</v>
+      </c>
+      <c r="D104">
+        <v>63000</v>
+      </c>
+      <c r="E104">
+        <v>62210.05</v>
+      </c>
+      <c r="F104">
+        <v>62500</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>62570.016666666663</v>
+      </c>
+      <c r="H104">
+        <v>62837.847592082944</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>64161.78315328592</v>
+      </c>
+      <c r="K104">
+        <v>62855.140333049443</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>29.875248611192255</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>289.94999999999709</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>789.94999999999709</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.3670485473764139</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>63630.003067642465</v>
+      </c>
+      <c r="W104">
+        <v>64241.623524156545</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-611.62045651407971</v>
+      </c>
+      <c r="Y104">
+        <v>-545.91593179487427</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>62720</v>
+      </c>
+      <c r="D105">
+        <v>62999</v>
+      </c>
+      <c r="E105">
+        <v>61501</v>
+      </c>
+      <c r="F105">
+        <v>61505</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>62001.666666666664</v>
+      </c>
+      <c r="H105">
+        <v>62419.757129374804</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>63903.386897000157</v>
+      </c>
+      <c r="K105">
+        <v>62554.220259038455</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>21.138869236819975</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>1498</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>2.6702269692923898E-3</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>63303.079518774393</v>
+      </c>
+      <c r="W105">
+        <v>64038.910670515317</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-735.83115174092381</v>
+      </c>
+      <c r="Y105">
+        <v>-583.8989757840842</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>62828.25</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>62426.75</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>62250</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>62073.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>61790</v>
+      </c>
+      <c r="D106">
+        <v>62200</v>
+      </c>
+      <c r="E106">
+        <v>61000</v>
+      </c>
+      <c r="F106">
+        <v>61901.15</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>61700.383333333331</v>
+      </c>
+      <c r="H106">
+        <v>62060.070231354068</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>63524.856475444569</v>
+      </c>
+      <c r="K106">
+        <v>62208.83797925213</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>31.157798281788246</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>901.15000000000146</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>1200</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.7509583333333345</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>63087.398054347563</v>
+      </c>
+      <c r="W106">
+        <v>63880.55802825492</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-793.1599739073572</v>
+      </c>
+      <c r="Y106">
+        <v>-625.75117540873885</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>62051</v>
+      </c>
+      <c r="D107">
+        <v>63940</v>
+      </c>
+      <c r="E107">
+        <v>62051</v>
+      </c>
+      <c r="F107">
+        <v>63220</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>63070.333333333336</v>
+      </c>
+      <c r="H107">
+        <v>62565.201782343705</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>63617.110592012439</v>
+      </c>
+      <c r="K107">
+        <v>62173.762872751657</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>54.966645055905026</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1169</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>1889</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.61884595023822131</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>63107.798353678707</v>
+      </c>
+      <c r="W107">
+        <v>63831.627803939744</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-723.82945026103698</v>
+      </c>
+      <c r="Y107">
+        <v>-645.36683037919852</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
